--- a/xlsx/Chatbots.xlsx
+++ b/xlsx/Chatbots.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LOCAL\MuTChatbots\paper\material\Chatbots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB6AB7-5BA9-4FD7-A200-F287F44EEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF6550-F0EA-409A-A331-8B03EF0CAA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,6 +792,60 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,12 +864,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,54 +871,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,99 +1193,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="52" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="54"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="17" t="s">
         <v>51</v>
       </c>
@@ -1300,7 +1295,7 @@
       <c r="I7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="17" t="s">
         <v>51</v>
       </c>
@@ -1310,7 +1305,7 @@
       <c r="M7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="18" t="s">
         <v>51</v>
       </c>
@@ -1320,8 +1315,8 @@
       <c r="Q7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1376,10 +1371,10 @@
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="45"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -1436,10 +1431,10 @@
       <c r="S9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="47"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1494,16 +1489,16 @@
       <c r="S10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="48" t="s">
+      <c r="T10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="47" t="s">
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y10" s="47"/>
+      <c r="Y10" s="34"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1558,16 +1553,16 @@
       <c r="S11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="47" t="s">
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y11" s="47"/>
+      <c r="Y11" s="34"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1622,16 +1617,16 @@
       <c r="S12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="46" t="s">
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Y12" s="47"/>
+      <c r="Y12" s="34"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1686,16 +1681,16 @@
       <c r="S13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="47" t="s">
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y13" s="47"/>
+      <c r="Y13" s="34"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -1750,16 +1745,16 @@
       <c r="S14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="46" t="s">
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="47"/>
+      <c r="Y14" s="34"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -1814,10 +1809,10 @@
       <c r="S15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="46" t="s">
+      <c r="T15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="U15" s="47"/>
+      <c r="U15" s="34"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1872,16 +1867,16 @@
       <c r="S16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="48" t="s">
+      <c r="T16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="45" t="s">
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="45"/>
+      <c r="Y16" s="32"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
@@ -1936,10 +1931,10 @@
       <c r="S17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="45"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -1994,20 +1989,20 @@
       <c r="S18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T18" s="48" t="s">
+      <c r="T18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="47" t="s">
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="55" t="s">
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AA18" s="55"/>
+      <c r="AA18" s="33"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -2062,10 +2057,10 @@
       <c r="S19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T19" s="44" t="s">
+      <c r="T19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="45"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -2120,10 +2115,10 @@
       <c r="S20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="44" t="s">
+      <c r="T20" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="45"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
@@ -2178,16 +2173,16 @@
       <c r="S21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="48" t="s">
+      <c r="T21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="45" t="s">
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Y21" s="45"/>
+      <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
@@ -2244,14 +2239,14 @@
       <c r="S22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="44" t="s">
+      <c r="T22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U22" s="45"/>
-      <c r="V22" s="51" t="s">
+      <c r="U22" s="32"/>
+      <c r="V22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="W22" s="51"/>
+      <c r="W22" s="39"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
@@ -2308,16 +2303,16 @@
       <c r="S23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="45" t="s">
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" s="45"/>
+      <c r="Y23" s="32"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -2372,10 +2367,10 @@
       <c r="S24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T24" s="47" t="s">
+      <c r="T24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="U24" s="47"/>
+      <c r="U24" s="34"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
@@ -2430,10 +2425,10 @@
       <c r="S25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="T25" s="44" t="s">
+      <c r="T25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="45"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
@@ -2488,16 +2483,16 @@
       <c r="S26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T26" s="48" t="s">
+      <c r="T26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="45" t="s">
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Y26" s="45"/>
+      <c r="Y26" s="32"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
@@ -2552,16 +2547,16 @@
       <c r="S27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="55" t="s">
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="55"/>
+      <c r="Y27" s="33"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
@@ -2616,16 +2611,16 @@
       <c r="S28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="48" t="s">
+      <c r="T28" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="47" t="s">
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" s="47"/>
+      <c r="Y28" s="34"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
@@ -2680,16 +2675,16 @@
       <c r="S29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="T29" s="48" t="s">
+      <c r="T29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="47" t="s">
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" s="47"/>
+      <c r="Y29" s="34"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -2744,10 +2739,10 @@
       <c r="S30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="T30" s="56" t="s">
+      <c r="T30" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="U30" s="56"/>
+      <c r="U30" s="36"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
@@ -2802,16 +2797,16 @@
       <c r="S31" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="47" t="s">
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y31" s="47"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -2866,16 +2861,16 @@
       <c r="S32" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="48" t="s">
+      <c r="T32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="47" t="s">
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Y32" s="47"/>
+      <c r="Y32" s="34"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -3023,12 +3018,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T11:W11"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="X18:Y18"/>
@@ -3045,43 +3071,12 @@
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="X23:Y23"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T26:W26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S8" r:id="rId1" xr:uid="{88D4351C-16A6-4655-9F60-C8A641EF390A}"/>

--- a/xlsx/Chatbots.xlsx
+++ b/xlsx/Chatbots.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF6550-F0EA-409A-A331-8B03EF0CAA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A365D8-EF3B-4986-9DF5-54E1B4418FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Av.</t>
+  </si>
+  <si>
+    <t>Botium by hand</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F5" s="40" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -3105,6 +3108,7 @@
     <hyperlink ref="S32" r:id="rId24" xr:uid="{F7D3D064-8E29-40CB-ADA9-3C910143ADAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -3229,5 +3233,6 @@
     <hyperlink ref="J4" r:id="rId2" xr:uid="{4DEE8DD0-60F8-4B8C-87A1-01A932DF13A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/Chatbots.xlsx
+++ b/xlsx/Chatbots.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A365D8-EF3B-4986-9DF5-54E1B4418FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE910A18-C539-4084-BB75-1A5974B0E939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>Botium auto &amp; Rasa test</t>
   </si>
   <si>
-    <t>Botium by Sara &amp; Botium auto</t>
-  </si>
-  <si>
     <t>Loaded in Rasa 3.1</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>yassinelamarti</t>
   </si>
   <si>
-    <t>Botium by Sara &amp; auto &amp; Rasa test</t>
-  </si>
-  <si>
     <t>https://github.com/yassinelamarti/test</t>
   </si>
   <si>
@@ -304,6 +298,12 @@
   </si>
   <si>
     <t>Botium by hand</t>
+  </si>
+  <si>
+    <t>Botium by hand &amp; Botium auto</t>
+  </si>
+  <si>
+    <t>Botium by hand &amp; auto &amp; Rasa test</t>
   </si>
 </sst>
 </file>
@@ -795,85 +795,85 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,130 +1196,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40" t="s">
+      <c r="F5" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="40" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="51" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="54" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="43" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="Q7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1374,10 +1374,10 @@
       <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="32"/>
+      <c r="T8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="44"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -1434,10 +1434,10 @@
       <c r="S9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="34"/>
+      <c r="T9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="42"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1492,16 +1492,16 @@
       <c r="S10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="34"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="42"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1556,16 +1556,16 @@
       <c r="S11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="34"/>
+      <c r="T11" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="42"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1620,16 +1620,16 @@
       <c r="S12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="34"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="42"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1684,16 +1684,16 @@
       <c r="S13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="34"/>
+      <c r="T13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="42"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -1748,16 +1748,16 @@
       <c r="S14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y14" s="34"/>
+      <c r="T14" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -1812,10 +1812,10 @@
       <c r="S15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="34"/>
+      <c r="T15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="42"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1870,16 +1870,16 @@
       <c r="S16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="32"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="44"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
@@ -1934,14 +1934,14 @@
       <c r="S17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="32"/>
+      <c r="T17" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="44"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -1990,26 +1990,26 @@
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA18" s="55"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
@@ -2058,16 +2058,16 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="44"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="13">
         <v>2</v>
@@ -2116,16 +2116,16 @@
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="T20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="44"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
@@ -2174,22 +2174,22 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="T21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="32"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="44"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
@@ -2237,23 +2237,23 @@
         <v>2</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="W22" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="T22" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" s="44"/>
+      <c r="V22" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="51"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -2301,25 +2301,25 @@
         <v>20</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="T23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" s="32"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
@@ -2368,16 +2368,16 @@
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="U24" s="42"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
@@ -2426,16 +2426,16 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T25" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U25" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" s="44"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="13">
         <v>2</v>
@@ -2484,22 +2484,22 @@
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="T26" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="32"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -2548,22 +2548,22 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="T27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y27" s="33"/>
+      <c r="Y27" s="55"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
@@ -2612,22 +2612,22 @@
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="T28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="42"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -2676,22 +2676,22 @@
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="T29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" s="34"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="42"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
@@ -2740,16 +2740,16 @@
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="T30" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="U30" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="T30" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" s="56"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -2798,22 +2798,22 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="T31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y31" s="34"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" s="42"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="13">
         <v>2</v>
@@ -2862,22 +2862,22 @@
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="T32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y32" s="34"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="42"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="26" t="str">
         <f>CONCATENATE(COUNTIF(C8:C32,"=1"),"(1)+",COUNTIF(C8:C32,"=2"),"(2)")</f>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="26" t="str">
         <f>CONCATENATE(ROUNDDOWN(COUNTIF(C8:C32,"=1")/COUNTA(C8:C32),2)*100,"%(1)+",ROUNDDOWN(COUNTIF(C8:C32,"=2")/COUNTA(C8:C32),2)*100,"%(2)")</f>
@@ -3021,27 +3021,28 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="T20:U20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="X10:Y10"/>
@@ -3058,28 +3059,27 @@
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="T11:W11"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S8" r:id="rId1" xr:uid="{88D4351C-16A6-4655-9F60-C8A641EF390A}"/>
